--- a/CashFlow/ANET_cashflow.xlsx
+++ b/CashFlow/ANET_cashflow.xlsx
@@ -622,19 +622,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1560000000.0</v>
+        <v>-235318000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1320000000.0</v>
+        <v>-198020000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>946571000.0</v>
+        <v>-12344000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>640547000.0</v>
+        <v>85832000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>282951000.0</v>
+        <v>20927000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-22279000.0</v>
@@ -830,19 +830,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>41161000.0</v>
+        <v>505000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>84227000.0</v>
+        <v>463000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>59104000.0</v>
+        <v>315207000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>30783000.0</v>
+        <v>201745000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>18155000.0</v>
+        <v>97731000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>26862000.0</v>
